--- a/biology/Médecine/Exérèse/Exérèse.xlsx
+++ b/biology/Médecine/Exérèse/Exérèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ex%C3%A9r%C3%A8se</t>
+          <t>Exérèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une exérèse est une intervention chirurgicale consistant à retirer de l’organisme un élément qui lui est nuisible ou inutile (organe (appendicectomie, amygdalectomie…), tumeur (colectomie par exemple), corps étranger (exemple : balle).
 L'exérèse se pratique sous anesthésie locale ou générale dans un bloc opératoire (suivant la gravité) par un médecin spécialiste. Cette intervention est très souvent suivie d'un examen anatomopathologique pour déterminer la nature exacte de l'élément retiré. Comme tout geste chirurgical, l'exérèse peut entraîner des complications.
